--- a/Performance file/dialog.xlsx
+++ b/Performance file/dialog.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengyuya/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A78B22-6AFC-1F4D-A580-71A379AED579}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30E3B98-F9AA-E94E-8FE5-FBD6A528DD6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13020" yWindow="3280" windowWidth="24340" windowHeight="17560" activeTab="1" xr2:uid="{6837455B-0ECB-F043-820D-A33B795C8E1E}"/>
+    <workbookView xWindow="1380" yWindow="540" windowWidth="22400" windowHeight="20740" activeTab="2" xr2:uid="{6837455B-0ECB-F043-820D-A33B795C8E1E}"/>
   </bookViews>
   <sheets>
     <sheet name="round1" sheetId="1" r:id="rId1"/>
     <sheet name="round2" sheetId="2" r:id="rId2"/>
+    <sheet name="0416" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="343">
   <si>
     <t>CNN</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -356,13 +357,828 @@
   </si>
   <si>
     <t>weighted avg       0.74      0.77      0.74      1755</t>
+  </si>
+  <si>
+    <t>BERT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.67      0.80      0.73       477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           2       0.83      0.93      0.88       374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3       0.53      0.10      0.17       101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           4       0.85      0.88      0.87       662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           5       0.27      0.12      0.17        33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           6       0.64      0.34      0.45        85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.54      0.45      0.46      1755</t>
+  </si>
+  <si>
+    <t>weighted avg       0.75      0.77      0.75      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.83      0.94      0.88       477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           2       0.96      0.98      0.97       374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3       0.27      0.15      0.19       100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           4       0.88      0.97      0.92       662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           5       0.29      0.15      0.20        33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           6       0.75      0.28      0.41        85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.86      1754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.57      0.50      0.51      1754</t>
+  </si>
+  <si>
+    <t>weighted avg       0.82      0.86      0.83      1754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.86      0.86      0.86       477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           2       0.97      0.95      0.96       374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3       0.26      0.33      0.29       100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           4       0.91      0.96      0.93       662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           6       0.67      0.64      0.65        85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.85      1754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.52      0.53      0.53      1754</t>
+  </si>
+  <si>
+    <t>weighted avg       0.83      0.85      0.84      1754</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>加入</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>sender</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>round</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.90      0.73      0.81      1060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.69      0.88      0.77       695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.79      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.79      0.81      0.79      1755</t>
+  </si>
+  <si>
+    <t>weighted avg       0.82      0.79      0.79      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.67      0.94      0.78      1060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.78      0.29      0.43       695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.69      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.72      0.62      0.61      1755</t>
+  </si>
+  <si>
+    <t>weighted avg       0.71      0.69      0.64      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.85      0.88      0.86      1060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.81      0.76      0.78       695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.83      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.83      0.82      0.82      1755</t>
+  </si>
+  <si>
+    <t>weighted avg       0.83      0.83      0.83      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SVC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.84      0.91      0.87      1060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.84      0.73      0.78       695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.84      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.84      0.82      0.83      1755</t>
+  </si>
+  <si>
+    <t>weighted avg       0.84      0.84      0.84      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.85      0.88      0.87      1060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.81      0.77      0.79       695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.83      0.82      0.83      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.82      0.82      0.82      1060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.72      0.72      0.72       695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.77      0.77      0.77      1755</t>
+  </si>
+  <si>
+    <t>weighted avg       0.78      0.78      0.78      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.70      0.55      0.62      1060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.48      0.64      0.55       695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.59      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.59      0.60      0.59      1755</t>
+  </si>
+  <si>
+    <t>weighted avg       0.62      0.59      0.59      1755</t>
+  </si>
+  <si>
+    <t>KNN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>label 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>label 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.95      1.00      0.97      1624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.84      0.31      0.46       131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.94      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.89      0.65      0.71      1755</t>
+  </si>
+  <si>
+    <t>weighted avg       0.94      0.94      0.93      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.94      1.00      0.97      1624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.81      0.26      0.39       131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.88      0.63      0.68      1755</t>
+  </si>
+  <si>
+    <t>weighted avg       0.93      0.94      0.93      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.94      0.99      0.97      1624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.71      0.26      0.38       131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.83      0.63      0.67      1755</t>
+  </si>
+  <si>
+    <t>weighted avg       0.93      0.94      0.92      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RandomForest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.93      1.00      0.96      1624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.00      0.00      0.00       131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.93      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.46      0.50      0.48      1755</t>
+  </si>
+  <si>
+    <t>weighted avg       0.86      0.93      0.89      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MultinomialNB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.25      0.01      0.01       131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.92      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.59      0.50      0.49      1755</t>
+  </si>
+  <si>
+    <t>weighted avg       0.88      0.92      0.89      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.95      0.96      0.95      1624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.40      0.37      0.39       131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.91      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.68      0.66      0.67      1755</t>
+  </si>
+  <si>
+    <t>weighted avg       0.91      0.91      0.91      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.94      0.95      0.94      1624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.28      0.25      0.27       131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.90      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.61      0.60      0.61      1755</t>
+  </si>
+  <si>
+    <t>weighted avg       0.89      0.90      0.89      1755</t>
+  </si>
+  <si>
+    <t>label 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>weighted avg       0.90      0.90      0.90      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.90      0.95      0.93      1212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.88      0.77      0.82       543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.89      0.86      0.87      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.89      0.95      0.92      1212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.88      0.75      0.81       543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.89      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.89      0.85      0.87      1755</t>
+  </si>
+  <si>
+    <t>weighted avg       0.89      0.89      0.89      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SVC </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.89      0.96      0.93      1212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.90      0.74      0.81       543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.89      0.94      0.91      1212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.84      0.75      0.79       543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.88      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.87      0.84      0.85      1755</t>
+  </si>
+  <si>
+    <t>weighted avg       0.88      0.88      0.88      1755</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.87      0.94      0.91      1212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.84      0.69      0.76       543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.86      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.86      0.82      0.83      1755</t>
+  </si>
+  <si>
+    <t>weighted avg       0.86      0.86      0.86      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.70      1.00      0.82      1212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.90      0.03      0.06       543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.80      0.52      0.44      1755</t>
+  </si>
+  <si>
+    <t>weighted avg       0.76      0.70      0.59      1755</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>KNN</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>RandomForest</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>label 3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.95      0.88      0.92       781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.91      0.97      0.94       974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.93      0.92      0.93      1755</t>
+  </si>
+  <si>
+    <t>weighted avg       0.93      0.93      0.93      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SVC </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.96      0.88      0.92       781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.94      0.92      0.93      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.94      0.89      0.91       781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.92      0.95      0.93       974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.93      0.92      0.92      1755</t>
+  </si>
+  <si>
+    <t>weighted avg       0.93      0.92      0.92      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.88      0.87      0.88       781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.90      0.90      0.90       974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.89      0.89      0.89      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.88      0.88      0.88       781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.91      0.90      0.90       974</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>MultinomialNB</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.82      0.94      0.88       781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.95      0.84      0.89       974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.88      0.89      0.88      1755</t>
+  </si>
+  <si>
+    <t>weighted avg       0.89      0.88      0.88      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.60      0.62      0.61       781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.69      0.67      0.68       974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.65      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.64      0.65      0.65      1755</t>
+  </si>
+  <si>
+    <t>weighted avg       0.65      0.65      0.65      1755</t>
+  </si>
+  <si>
+    <t>label 4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.91      0.97      0.94       975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.95      0.88      0.92       780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.93      0.93      0.93      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.96      0.88      0.92       780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.91      0.95      0.93       975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.94      0.88      0.91       780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.92      0.92      0.92      1755</t>
+  </si>
+  <si>
+    <t>weighted avg       0.92      0.92      0.92      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.89      0.91      0.90       975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.88      0.87      0.87       780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.91      0.90      0.90       975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.88      0.89      0.88       780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.95      0.84      0.89       975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.82      0.94      0.88       780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.69      0.67      0.68       975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.60      0.62      0.61       780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.65      0.65      0.65      1755</t>
+  </si>
+  <si>
+    <t>label 5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.90      0.94      0.92      1193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.86      0.79      0.82       562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.88      0.86      0.87      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.91      0.92      0.91      1193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.82      0.81      0.82       562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.87      0.86      0.87      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.89      0.94      0.91      1193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.85      0.75      0.80       562</t>
+  </si>
+  <si>
+    <t>weighted avg       0.87      0.88      0.87      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LogisticRegression </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.90      0.88      0.89      1193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.75      0.78      0.77       562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.85      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.82      0.83      0.83      1755</t>
+  </si>
+  <si>
+    <t>weighted avg       0.85      0.85      0.85      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.88      0.91      0.89      1193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.79      0.73      0.76       562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.75      0.97      0.84      1193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.82      0.30      0.44       562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.78      0.63      0.64      1755</t>
+  </si>
+  <si>
+    <t>weighted avg       0.77      0.75      0.71      1755</t>
+  </si>
+  <si>
+    <t>label 6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.91      0.96      0.94       976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.95      0.89      0.92       779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.91      0.97      0.94       976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.96      0.88      0.92       779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.91      0.95      0.93       976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.94      0.88      0.91       779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.90      0.91      0.91       976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.89      0.87      0.88       779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.91      0.90      0.90       976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.88      0.89      0.88       779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.95      0.84      0.89       976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.82      0.94      0.88       779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.69      0.67      0.68       976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.60      0.62      0.61       779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.92      0.95      0.94      1060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.93      0.87      0.90       695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.92      0.91      0.92      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.93      0.95      0.94      1060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.92      0.89      0.90       695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.95      0.98      0.96      1624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.53      0.35      0.42       131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.74      0.66      0.69      1755</t>
+  </si>
+  <si>
+    <t>weighted avg       0.92      0.93      0.92      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.91      0.96      0.93      1212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.89      0.79      0.84       543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.90      0.87      0.88      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.92      0.93      0.92      1212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.84      0.81      0.83       543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.88      0.87      0.88      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       1.00      1.00      1.00       781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       1.00      1.00      1.00       974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           1.00      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       1.00      1.00      1.00      1755</t>
+  </si>
+  <si>
+    <t>weighted avg       1.00      1.00      1.00      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.93      0.94      0.94      1193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.88      0.85      0.86       562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.90      0.90      0.90      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.95      0.90      0.92      1193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.81      0.91      0.85       562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.88      0.90      0.89      1755</t>
+  </si>
+  <si>
+    <t>weighted avg       0.91      0.90      0.90      1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       1.00      1.00      1.00       976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       1.00      1.00      1.00       779</t>
+  </si>
+  <si>
+    <t>分成七個檔案分別訓練結果 (分成train跟test)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -412,13 +1228,95 @@
       <family val="1"/>
       <charset val="136"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFC00000"/>
+      <name val="新細明體 (本文)"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="新細明體 (本文)"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -435,7 +1333,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -453,6 +1351,45 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -771,13 +1708,13 @@
   <dimension ref="A1:G120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E113" sqref="E113"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29">
@@ -989,68 +1926,107 @@
       <c r="A32" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="19">
+      <c r="G32" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="19">
       <c r="A33" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="19">
+      <c r="G33" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="19">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" ht="19">
+      <c r="G35" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="19">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" ht="19">
+      <c r="G36" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="19">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" ht="19">
+      <c r="G37" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="19">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" ht="19">
+      <c r="G38" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="19">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" ht="19">
+      <c r="G39" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="19">
       <c r="A40" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" ht="19">
+      <c r="G40" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="19">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" ht="19">
+      <c r="G41" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="19">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" ht="19">
+      <c r="G43" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="19">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" ht="19">
-      <c r="A45" s="1" t="s">
+      <c r="G44" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="19">
+      <c r="A45" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" ht="27">
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="7"/>
+      <c r="G45" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="27">
       <c r="A47" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="19">
+    <row r="48" spans="1:7" ht="19">
       <c r="A48" s="1" t="s">
         <v>2</v>
       </c>
@@ -1353,12 +2329,2816 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489E69B6-F326-E146-9DB8-69E3737936CA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" s="9" customFormat="1" ht="27">
+      <c r="B1" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="27">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="19">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="19">
+      <c r="A6" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="19">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="19">
+      <c r="A8" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="19">
+      <c r="A9" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="19">
+      <c r="A10" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="19">
+      <c r="A11" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="19">
+      <c r="A12" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="19">
+      <c r="A14" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="19">
+      <c r="A15" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="19">
+      <c r="A16" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="27">
+      <c r="A19" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="19">
+      <c r="A20" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="19">
+      <c r="A22" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="19">
+      <c r="A23" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="19">
+      <c r="A24" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="19">
+      <c r="A25" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="19">
+      <c r="A26" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="19">
+      <c r="A27" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="19">
+      <c r="A28" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="19">
+      <c r="A30" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="19">
+      <c r="A31" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="19">
+      <c r="A32" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0992803-9DF5-024E-8313-9C533973B73F}">
+  <dimension ref="A1:BC137"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="5" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:55" s="12" customFormat="1" ht="29">
+      <c r="A1" s="15" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55" s="14" customFormat="1" ht="25">
+      <c r="A2" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y2" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="AG2" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="AO2" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="AW2" s="13" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55" ht="32">
+      <c r="A3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="I3" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="Y3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AG3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8"/>
+      <c r="AO3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="8"/>
+      <c r="AQ3" s="8"/>
+      <c r="AR3" s="8"/>
+      <c r="AS3" s="8"/>
+      <c r="AT3" s="8"/>
+      <c r="AU3" s="8"/>
+      <c r="AW3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="8"/>
+      <c r="AY3" s="8"/>
+      <c r="AZ3" s="8"/>
+      <c r="BA3" s="8"/>
+      <c r="BB3" s="8"/>
+      <c r="BC3" s="8"/>
+    </row>
+    <row r="4" spans="1:55" ht="27">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="I4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="Y4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="8"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AG4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH4" s="8"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="8"/>
+      <c r="AO4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP4" s="8"/>
+      <c r="AQ4" s="8"/>
+      <c r="AR4" s="8"/>
+      <c r="AS4" s="8"/>
+      <c r="AT4" s="8"/>
+      <c r="AU4" s="8"/>
+      <c r="AW4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX4" s="8"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="8"/>
+      <c r="BB4" s="8"/>
+      <c r="BC4" s="8"/>
+    </row>
+    <row r="5" spans="1:55" ht="19">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AH5" s="8"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="8"/>
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="8"/>
+      <c r="AS5" s="8"/>
+      <c r="AT5" s="8"/>
+      <c r="AU5" s="8"/>
+      <c r="AX5" s="8"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="8"/>
+      <c r="BB5" s="8"/>
+      <c r="BC5" s="8"/>
+    </row>
+    <row r="6" spans="1:55" ht="19">
+      <c r="A6" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="I6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="Y6" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="Z6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AG6" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AH6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
+      <c r="AO6" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="AP6" s="8"/>
+      <c r="AQ6" s="8"/>
+      <c r="AR6" s="8"/>
+      <c r="AS6" s="8"/>
+      <c r="AT6" s="8"/>
+      <c r="AU6" s="8"/>
+      <c r="AW6" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AX6" s="8"/>
+      <c r="BA6" s="8"/>
+      <c r="BB6" s="8"/>
+      <c r="BC6" s="8"/>
+    </row>
+    <row r="7" spans="1:55" ht="19">
+      <c r="A7" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="I7" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="Y7" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="Z7" s="8"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AG7" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="AH7" s="8"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="8"/>
+      <c r="AO7" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="AP7" s="8"/>
+      <c r="AQ7" s="8"/>
+      <c r="AR7" s="8"/>
+      <c r="AS7" s="8"/>
+      <c r="AT7" s="8"/>
+      <c r="AU7" s="8"/>
+      <c r="AW7" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AX7" s="8"/>
+      <c r="AZ7" s="1"/>
+      <c r="BA7" s="8"/>
+      <c r="BB7" s="8"/>
+      <c r="BC7" s="8"/>
+    </row>
+    <row r="8" spans="1:55" ht="19">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="8"/>
+      <c r="AP8" s="8"/>
+      <c r="AQ8" s="8"/>
+      <c r="AR8" s="8"/>
+      <c r="AS8" s="8"/>
+      <c r="AT8" s="8"/>
+      <c r="AU8" s="8"/>
+      <c r="AX8" s="8"/>
+      <c r="AZ8" s="1"/>
+      <c r="BA8" s="8"/>
+      <c r="BB8" s="8"/>
+      <c r="BC8" s="8"/>
+    </row>
+    <row r="9" spans="1:55" ht="19">
+      <c r="A9" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="I9" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="Y9" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="Z9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AG9" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="AH9" s="8"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8"/>
+      <c r="AO9" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AP9" s="8"/>
+      <c r="AQ9" s="8"/>
+      <c r="AR9" s="8"/>
+      <c r="AS9" s="8"/>
+      <c r="AT9" s="8"/>
+      <c r="AU9" s="8"/>
+      <c r="AW9" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="AX9" s="8"/>
+      <c r="BA9" s="8"/>
+      <c r="BB9" s="8"/>
+      <c r="BC9" s="8"/>
+    </row>
+    <row r="10" spans="1:55" ht="19">
+      <c r="A10" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="I10" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="Y10" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="Z10" s="8"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AG10" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AH10" s="8"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="8"/>
+      <c r="AO10" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="AP10" s="8"/>
+      <c r="AQ10" s="8"/>
+      <c r="AR10" s="8"/>
+      <c r="AS10" s="8"/>
+      <c r="AT10" s="8"/>
+      <c r="AU10" s="8"/>
+      <c r="AW10" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AX10" s="8"/>
+      <c r="AZ10" s="1"/>
+      <c r="BA10" s="8"/>
+      <c r="BB10" s="8"/>
+      <c r="BC10" s="8"/>
+    </row>
+    <row r="11" spans="1:55" ht="19">
+      <c r="A11" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="I11" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="Y11" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z11" s="8"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AG11" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AH11" s="8"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="8"/>
+      <c r="AO11" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AP11" s="8"/>
+      <c r="AQ11" s="8"/>
+      <c r="AR11" s="8"/>
+      <c r="AS11" s="8"/>
+      <c r="AT11" s="8"/>
+      <c r="AU11" s="8"/>
+      <c r="AW11" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AX11" s="8"/>
+      <c r="AZ11" s="1"/>
+      <c r="BA11" s="8"/>
+      <c r="BB11" s="8"/>
+      <c r="BC11" s="8"/>
+    </row>
+    <row r="12" spans="1:55" ht="25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="8"/>
+      <c r="AM12" s="8"/>
+      <c r="AO12" s="16"/>
+      <c r="AP12" s="8"/>
+      <c r="AQ12" s="8"/>
+      <c r="AR12" s="8"/>
+      <c r="AS12" s="8"/>
+      <c r="AT12" s="8"/>
+      <c r="AU12" s="8"/>
+      <c r="AW12" s="16"/>
+      <c r="AX12" s="8"/>
+      <c r="AY12" s="8"/>
+      <c r="AZ12" s="8"/>
+      <c r="BA12" s="8"/>
+      <c r="BB12" s="8"/>
+      <c r="BC12" s="8"/>
+    </row>
+    <row r="13" spans="1:55" ht="25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AG13" s="16"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="8"/>
+      <c r="AL13" s="8"/>
+      <c r="AM13" s="8"/>
+      <c r="AO13" s="16"/>
+      <c r="AP13" s="8"/>
+      <c r="AQ13" s="8"/>
+      <c r="AR13" s="8"/>
+      <c r="AS13" s="8"/>
+      <c r="AT13" s="8"/>
+      <c r="AU13" s="8"/>
+      <c r="AW13" s="16"/>
+      <c r="AX13" s="8"/>
+      <c r="AY13" s="8"/>
+      <c r="AZ13" s="8"/>
+      <c r="BA13" s="8"/>
+      <c r="BB13" s="8"/>
+      <c r="BC13" s="8"/>
+    </row>
+    <row r="14" spans="1:55" ht="27">
+      <c r="A14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="I14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q14" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="Y14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AG14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="8"/>
+      <c r="AM14" s="8"/>
+      <c r="AO14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="8"/>
+      <c r="AQ14" s="8"/>
+      <c r="AR14" s="8"/>
+      <c r="AS14" s="8"/>
+      <c r="AT14" s="8"/>
+      <c r="AU14" s="8"/>
+      <c r="AW14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX14" s="8"/>
+      <c r="AY14" s="8"/>
+      <c r="AZ14" s="8"/>
+      <c r="BA14" s="8"/>
+      <c r="BB14" s="8"/>
+      <c r="BC14" s="8"/>
+    </row>
+    <row r="15" spans="1:55" ht="27">
+      <c r="A15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="I15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z15" s="8"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8"/>
+      <c r="AG15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH15" s="8"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="8"/>
+      <c r="AL15" s="8"/>
+      <c r="AM15" s="8"/>
+      <c r="AO15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP15" s="8"/>
+      <c r="AQ15" s="8"/>
+      <c r="AR15" s="8"/>
+      <c r="AS15" s="8"/>
+      <c r="AT15" s="8"/>
+      <c r="AU15" s="8"/>
+      <c r="AW15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX15" s="8"/>
+      <c r="AZ15" s="4"/>
+      <c r="BA15" s="8"/>
+      <c r="BB15" s="8"/>
+      <c r="BC15" s="8"/>
+    </row>
+    <row r="16" spans="1:55" ht="19">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AH16" s="8"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="8"/>
+      <c r="AL16" s="8"/>
+      <c r="AM16" s="8"/>
+      <c r="AP16" s="8"/>
+      <c r="AQ16" s="8"/>
+      <c r="AR16" s="8"/>
+      <c r="AS16" s="8"/>
+      <c r="AT16" s="8"/>
+      <c r="AU16" s="8"/>
+      <c r="AX16" s="8"/>
+      <c r="AZ16" s="1"/>
+      <c r="BA16" s="8"/>
+      <c r="BB16" s="8"/>
+      <c r="BC16" s="8"/>
+    </row>
+    <row r="17" spans="1:55" ht="19">
+      <c r="A17" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="I17" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="Z17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AG17" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AH17" s="8"/>
+      <c r="AK17" s="8"/>
+      <c r="AL17" s="8"/>
+      <c r="AM17" s="8"/>
+      <c r="AO17" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP17" s="8"/>
+      <c r="AQ17" s="8"/>
+      <c r="AR17" s="8"/>
+      <c r="AS17" s="8"/>
+      <c r="AT17" s="8"/>
+      <c r="AU17" s="8"/>
+      <c r="AW17" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AX17" s="8"/>
+      <c r="BA17" s="8"/>
+      <c r="BB17" s="8"/>
+      <c r="BC17" s="8"/>
+    </row>
+    <row r="18" spans="1:55" ht="19">
+      <c r="A18" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="I18" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="Z18" s="8"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AG18" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="AH18" s="8"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="8"/>
+      <c r="AL18" s="8"/>
+      <c r="AM18" s="8"/>
+      <c r="AO18" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="AP18" s="8"/>
+      <c r="AQ18" s="8"/>
+      <c r="AR18" s="8"/>
+      <c r="AS18" s="8"/>
+      <c r="AT18" s="8"/>
+      <c r="AU18" s="8"/>
+      <c r="AW18" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AX18" s="8"/>
+      <c r="AZ18" s="1"/>
+      <c r="BA18" s="8"/>
+      <c r="BB18" s="8"/>
+      <c r="BC18" s="8"/>
+    </row>
+    <row r="19" spans="1:55" ht="19">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AH19" s="8"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="8"/>
+      <c r="AL19" s="8"/>
+      <c r="AM19" s="8"/>
+      <c r="AP19" s="8"/>
+      <c r="AQ19" s="8"/>
+      <c r="AR19" s="8"/>
+      <c r="AS19" s="8"/>
+      <c r="AT19" s="8"/>
+      <c r="AU19" s="8"/>
+      <c r="AX19" s="8"/>
+      <c r="AZ19" s="1"/>
+      <c r="BA19" s="8"/>
+      <c r="BB19" s="8"/>
+      <c r="BC19" s="8"/>
+    </row>
+    <row r="20" spans="1:55" ht="19">
+      <c r="A20" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="I20" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="Z20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AG20" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="AH20" s="8"/>
+      <c r="AK20" s="8"/>
+      <c r="AL20" s="8"/>
+      <c r="AM20" s="8"/>
+      <c r="AO20" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AP20" s="8"/>
+      <c r="AQ20" s="8"/>
+      <c r="AR20" s="8"/>
+      <c r="AS20" s="8"/>
+      <c r="AT20" s="8"/>
+      <c r="AU20" s="8"/>
+      <c r="AW20" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="AX20" s="8"/>
+      <c r="BA20" s="8"/>
+      <c r="BB20" s="8"/>
+      <c r="BC20" s="8"/>
+    </row>
+    <row r="21" spans="1:55" ht="19">
+      <c r="A21" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="I21" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="Z21" s="8"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AG21" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AH21" s="8"/>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="8"/>
+      <c r="AL21" s="8"/>
+      <c r="AM21" s="8"/>
+      <c r="AO21" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AP21" s="8"/>
+      <c r="AQ21" s="8"/>
+      <c r="AR21" s="8"/>
+      <c r="AS21" s="8"/>
+      <c r="AT21" s="8"/>
+      <c r="AU21" s="8"/>
+      <c r="AW21" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AX21" s="8"/>
+      <c r="AZ21" s="1"/>
+      <c r="BA21" s="8"/>
+      <c r="BB21" s="8"/>
+      <c r="BC21" s="8"/>
+    </row>
+    <row r="22" spans="1:55" ht="19">
+      <c r="A22" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="I22" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z22" s="8"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AG22" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AH22" s="8"/>
+      <c r="AJ22" s="1"/>
+      <c r="AK22" s="8"/>
+      <c r="AL22" s="8"/>
+      <c r="AM22" s="8"/>
+      <c r="AO22" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AP22" s="8"/>
+      <c r="AQ22" s="8"/>
+      <c r="AR22" s="8"/>
+      <c r="AS22" s="8"/>
+      <c r="AT22" s="8"/>
+      <c r="AU22" s="8"/>
+      <c r="AW22" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AX22" s="8"/>
+      <c r="AZ22" s="1"/>
+      <c r="BA22" s="8"/>
+      <c r="BB22" s="8"/>
+      <c r="BC22" s="8"/>
+    </row>
+    <row r="23" spans="1:55" ht="25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AG23" s="16"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="8"/>
+      <c r="AL23" s="8"/>
+      <c r="AM23" s="8"/>
+      <c r="AO23" s="16"/>
+      <c r="AP23" s="8"/>
+      <c r="AQ23" s="8"/>
+      <c r="AR23" s="8"/>
+      <c r="AS23" s="8"/>
+      <c r="AT23" s="8"/>
+      <c r="AU23" s="8"/>
+      <c r="AW23" s="16"/>
+      <c r="AX23" s="8"/>
+      <c r="AY23" s="8"/>
+      <c r="AZ23" s="8"/>
+      <c r="BA23" s="8"/>
+      <c r="BB23" s="8"/>
+      <c r="BC23" s="8"/>
+    </row>
+    <row r="24" spans="1:55" ht="25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AG24" s="16"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
+      <c r="AL24" s="8"/>
+      <c r="AM24" s="8"/>
+      <c r="AO24" s="16"/>
+      <c r="AP24" s="8"/>
+      <c r="AQ24" s="8"/>
+      <c r="AR24" s="8"/>
+      <c r="AS24" s="8"/>
+      <c r="AT24" s="8"/>
+      <c r="AU24" s="8"/>
+      <c r="AW24" s="16"/>
+      <c r="AX24" s="8"/>
+      <c r="AY24" s="8"/>
+      <c r="AZ24" s="8"/>
+      <c r="BA24" s="8"/>
+      <c r="BB24" s="8"/>
+      <c r="BC24" s="8"/>
+    </row>
+    <row r="25" spans="1:55" ht="27">
+      <c r="A25" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="Q25" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y25" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="AG25" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="AO25" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW25" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:55" ht="19">
+      <c r="A26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="Q26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW26" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:55">
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+    </row>
+    <row r="28" spans="1:55" ht="19">
+      <c r="A28" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="Q28" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG28" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AO28" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AW28" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="29" spans="1:55" ht="19">
+      <c r="A29" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="Q29" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y29" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AG29" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AO29" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AW29" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:55">
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+    </row>
+    <row r="31" spans="1:55" ht="19">
+      <c r="A31" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="Q31" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG31" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO31" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AW31" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:55" ht="19">
+      <c r="A32" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="Q32" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y32" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AG32" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AO32" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="AW32" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33" spans="1:49" ht="19">
+      <c r="A33" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="Q33" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y33" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AG33" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AO33" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AW33" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="34" spans="1:49" ht="25">
+      <c r="I34" s="16"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+    </row>
+    <row r="35" spans="1:49" ht="25">
+      <c r="I35" s="16"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+    </row>
+    <row r="36" spans="1:49" ht="27">
+      <c r="A36" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="Q36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="Y36" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG36" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO36" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="AW36" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:49" ht="19">
+      <c r="A37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="Q37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="Y37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW37" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:49">
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+    </row>
+    <row r="39" spans="1:49" ht="19">
+      <c r="A39" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="Q39" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="Y39" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AG39" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AO39" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="AW39" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="40" spans="1:49" ht="19">
+      <c r="A40" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="Q40" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="Y40" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AG40" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AO40" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="AW40" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="41" spans="1:49">
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+    </row>
+    <row r="42" spans="1:49" ht="19">
+      <c r="A42" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="Q42" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="Y42" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG42" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO42" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW42" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="43" spans="1:49" ht="19">
+      <c r="A43" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="Q43" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="Y43" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AG43" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AO43" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="AW43" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="44" spans="1:49" ht="19">
+      <c r="A44" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="Q44" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="Y44" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AG44" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AO44" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AW44" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="47" spans="1:49" ht="24">
+      <c r="A47" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q47" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y47" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG47" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO47" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AW47" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:49" ht="19">
+      <c r="A48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW48" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:49" ht="19">
+      <c r="A50" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y50" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AG50" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AO50" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="AW50" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="51" spans="1:49" ht="19">
+      <c r="A51" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y51" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AG51" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AO51" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="AW51" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="53" spans="1:49" ht="19">
+      <c r="A53" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y53" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AG53" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AO53" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW53" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="54" spans="1:49" ht="19">
+      <c r="A54" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y54" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AG54" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="AO54" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="AW54" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="55" spans="1:49" ht="19">
+      <c r="A55" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y55" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG55" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AO55" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AW55" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="58" spans="1:49" ht="24">
+      <c r="A58" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q58" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y58" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG58" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO58" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="AW58" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:49" ht="19">
+      <c r="A59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW59" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:49" ht="19">
+      <c r="A61" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y61" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG61" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AO61" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="AW61" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="62" spans="1:49" ht="19">
+      <c r="A62" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y62" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG62" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="AO62" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="AW62" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="64" spans="1:49" ht="19">
+      <c r="A64" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y64" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AG64" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AO64" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW64" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="65" spans="1:49" ht="19">
+      <c r="A65" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y65" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG65" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AO65" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AW65" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="66" spans="1:49" ht="19">
+      <c r="A66" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y66" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AG66" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO66" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="AW66" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="69" spans="1:49" ht="24">
+      <c r="A69" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I69" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q69" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y69" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AG69" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AO69" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW69" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:49" ht="19">
+      <c r="A70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW70" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:49" ht="19">
+      <c r="A72" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y72" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG72" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AO72" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="AW72" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="73" spans="1:49" ht="19">
+      <c r="A73" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y73" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AG73" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AO73" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW73" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="75" spans="1:49" ht="19">
+      <c r="A75" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y75" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AG75" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AO75" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AW75" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="76" spans="1:49" ht="19">
+      <c r="A76" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q76" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y76" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG76" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AO76" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AW76" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="77" spans="1:49" ht="19">
+      <c r="A77" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y77" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AG77" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO77" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="AW77" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="80" spans="1:49" ht="24">
+      <c r="A80" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I80" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q80" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y80" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG80" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO80" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AW80" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:49" ht="19">
+      <c r="A81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW81" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:49" ht="19">
+      <c r="A83" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y83" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AG83" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AO83" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AW83" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="84" spans="1:49" ht="19">
+      <c r="A84" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q84" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y84" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AG84" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AO84" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AW84" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="86" spans="1:49" ht="19">
+      <c r="A86" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q86" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y86" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AG86" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AO86" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AW86" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="87" spans="1:49" ht="19">
+      <c r="A87" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q87" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y87" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG87" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AO87" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AW87" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="88" spans="1:49" ht="19">
+      <c r="A88" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q88" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y88" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AG88" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AO88" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="AW88" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="91" spans="1:49" ht="24">
+      <c r="A91" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="I91" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q91" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y91" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG91" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AO91" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AW91" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="92" spans="1:49" ht="19">
+      <c r="A92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW92" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:49" ht="19">
+      <c r="A94" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q94" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y94" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AG94" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AO94" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AW94" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="95" spans="1:49" ht="19">
+      <c r="A95" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q95" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y95" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AG95" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AO95" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AW95" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="97" spans="1:49" ht="19">
+      <c r="A97" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q97" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y97" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AG97" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AO97" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AW97" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="98" spans="1:49" ht="19">
+      <c r="A98" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q98" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y98" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AG98" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AO98" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AW98" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="99" spans="1:49" ht="19">
+      <c r="A99" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q99" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y99" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AG99" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AO99" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AW99" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" ht="32">
+      <c r="A118" s="17"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+    </row>
+    <row r="119" spans="1:15" ht="19">
+      <c r="A119" s="1"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+    </row>
+    <row r="120" spans="1:15">
+      <c r="B120" s="8"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+    </row>
+    <row r="121" spans="1:15" ht="19">
+      <c r="A121" s="1"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+    </row>
+    <row r="122" spans="1:15" ht="19">
+      <c r="A122" s="1"/>
+      <c r="B122" s="8"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="B123" s="8"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+    </row>
+    <row r="124" spans="1:15" ht="27">
+      <c r="A124" s="1"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G124" s="8"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="8"/>
+      <c r="K124" s="8"/>
+      <c r="L124" s="8"/>
+      <c r="M124" s="8"/>
+      <c r="N124" s="8"/>
+      <c r="O124" s="8"/>
+    </row>
+    <row r="125" spans="1:15" ht="19">
+      <c r="A125" s="1"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="G125" s="8"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="8"/>
+      <c r="K125" s="8"/>
+      <c r="L125" s="8"/>
+      <c r="M125" s="8"/>
+      <c r="N125" s="8"/>
+      <c r="O125" s="8"/>
+    </row>
+    <row r="126" spans="1:15" ht="19">
+      <c r="A126" s="1"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G126" s="8"/>
+      <c r="J126" s="8"/>
+      <c r="K126" s="8"/>
+      <c r="L126" s="8"/>
+      <c r="M126" s="8"/>
+      <c r="N126" s="8"/>
+      <c r="O126" s="8"/>
+    </row>
+    <row r="127" spans="1:15" ht="25">
+      <c r="A127" s="16"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G127" s="8"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="8"/>
+      <c r="K127" s="8"/>
+      <c r="L127" s="8"/>
+      <c r="M127" s="8"/>
+      <c r="N127" s="8"/>
+      <c r="O127" s="8"/>
+    </row>
+    <row r="128" spans="1:15" ht="25">
+      <c r="A128" s="16"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="G128" s="8"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="8"/>
+      <c r="K128" s="8"/>
+      <c r="L128" s="8"/>
+      <c r="M128" s="8"/>
+      <c r="N128" s="8"/>
+      <c r="O128" s="8"/>
+    </row>
+    <row r="129" spans="1:15" ht="27">
+      <c r="A129" s="4"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G129" s="8"/>
+      <c r="J129" s="8"/>
+      <c r="K129" s="8"/>
+      <c r="L129" s="8"/>
+      <c r="M129" s="8"/>
+      <c r="N129" s="8"/>
+      <c r="O129" s="8"/>
+    </row>
+    <row r="130" spans="1:15" ht="19">
+      <c r="A130" s="1"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G130" s="8"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="8"/>
+      <c r="K130" s="8"/>
+      <c r="L130" s="8"/>
+      <c r="M130" s="8"/>
+      <c r="N130" s="8"/>
+      <c r="O130" s="8"/>
+    </row>
+    <row r="131" spans="1:15" ht="19">
+      <c r="B131" s="8"/>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G131" s="8"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="8"/>
+      <c r="K131" s="8"/>
+      <c r="L131" s="8"/>
+      <c r="M131" s="8"/>
+      <c r="N131" s="8"/>
+      <c r="O131" s="8"/>
+    </row>
+    <row r="132" spans="1:15" ht="19">
+      <c r="A132" s="1"/>
+      <c r="B132" s="8"/>
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="8"/>
+      <c r="K132" s="8"/>
+      <c r="L132" s="8"/>
+      <c r="M132" s="8"/>
+      <c r="N132" s="8"/>
+      <c r="O132" s="8"/>
+    </row>
+    <row r="133" spans="1:15" ht="25">
+      <c r="A133" s="1"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="8"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c r="I133" s="16"/>
+      <c r="J133" s="8"/>
+      <c r="K133" s="8"/>
+      <c r="L133" s="8"/>
+      <c r="M133" s="8"/>
+      <c r="N133" s="8"/>
+      <c r="O133" s="8"/>
+    </row>
+    <row r="134" spans="1:15">
+      <c r="B134" s="8"/>
+      <c r="C134" s="8"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+    </row>
+    <row r="135" spans="1:15" ht="19">
+      <c r="A135" s="1"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+    </row>
+    <row r="136" spans="1:15" ht="19">
+      <c r="A136" s="1"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+    </row>
+    <row r="137" spans="1:15" ht="19">
+      <c r="A137" s="1"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="8"/>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
